--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Erbb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H2">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I2">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J2">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N2">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O2">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P2">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q2">
-        <v>0.03665180036466667</v>
+        <v>0.004518455168888889</v>
       </c>
       <c r="R2">
-        <v>0.329866203282</v>
+        <v>0.04066609652</v>
       </c>
       <c r="S2">
-        <v>0.001424531589949181</v>
+        <v>0.0003576292568836273</v>
       </c>
       <c r="T2">
-        <v>0.002224637820599075</v>
+        <v>0.0005211109827613372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H3">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I3">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J3">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P3">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q3">
-        <v>0.03379573080333333</v>
+        <v>0.009128238995555557</v>
       </c>
       <c r="R3">
-        <v>0.30416157723</v>
+        <v>0.08215415095999999</v>
       </c>
       <c r="S3">
-        <v>0.001313525820171666</v>
+        <v>0.0007224870462617525</v>
       </c>
       <c r="T3">
-        <v>0.002051284252665504</v>
+        <v>0.001052754850066167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H4">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I4">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J4">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N4">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O4">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P4">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q4">
-        <v>0.117261436761</v>
+        <v>0.04828230308533334</v>
       </c>
       <c r="R4">
-        <v>1.055352930849</v>
+        <v>0.434540727768</v>
       </c>
       <c r="S4">
-        <v>0.004557555680399982</v>
+        <v>0.003821475156360555</v>
       </c>
       <c r="T4">
-        <v>0.0071173646184046</v>
+        <v>0.005568371815220617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H5">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I5">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J5">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N5">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O5">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P5">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q5">
-        <v>1.49306421054</v>
+        <v>0.234272853136</v>
       </c>
       <c r="R5">
-        <v>8.95838526324</v>
+        <v>1.405637118816</v>
       </c>
       <c r="S5">
-        <v>0.05803035901579263</v>
+        <v>0.01854236088296466</v>
       </c>
       <c r="T5">
-        <v>0.06041589732387294</v>
+        <v>0.01801237401853342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.223433</v>
+        <v>0.06034933333333333</v>
       </c>
       <c r="H6">
-        <v>0.670299</v>
+        <v>0.181048</v>
       </c>
       <c r="I6">
-        <v>0.07062332792199583</v>
+        <v>0.02777843199183991</v>
       </c>
       <c r="J6">
-        <v>0.0800818668959252</v>
+        <v>0.03147049580180165</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N6">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O6">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P6">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q6">
-        <v>0.1362957685086667</v>
+        <v>0.05476384160177777</v>
       </c>
       <c r="R6">
-        <v>1.226661916578</v>
+        <v>0.4928745744159999</v>
       </c>
       <c r="S6">
-        <v>0.005297355815682379</v>
+        <v>0.00433447964936931</v>
       </c>
       <c r="T6">
-        <v>0.008272682880383082</v>
+        <v>0.006315884135220107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H7">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I7">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J7">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N7">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O7">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P7">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q7">
-        <v>0.1228523921997778</v>
+        <v>0.01672880109833333</v>
       </c>
       <c r="R7">
-        <v>1.105671529798</v>
+        <v>0.150559209885</v>
       </c>
       <c r="S7">
-        <v>0.004774857219786711</v>
+        <v>0.001324060653858858</v>
       </c>
       <c r="T7">
-        <v>0.007456716322785801</v>
+        <v>0.00192932355305743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H8">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I8">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J8">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P8">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q8">
-        <v>0.1132791932188889</v>
+        <v>0.03379573080333333</v>
       </c>
       <c r="R8">
-        <v>1.01951273897</v>
+        <v>0.30416157723</v>
       </c>
       <c r="S8">
-        <v>0.00440277933467708</v>
+        <v>0.002674883702787142</v>
       </c>
       <c r="T8">
-        <v>0.006875656175532113</v>
+        <v>0.003897643294841708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H9">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I9">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J9">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N9">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O9">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P9">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q9">
-        <v>0.393046122579</v>
+        <v>0.178756901351</v>
       </c>
       <c r="R9">
-        <v>3.537415103211</v>
+        <v>1.608812112159</v>
       </c>
       <c r="S9">
-        <v>0.01527637421218164</v>
+        <v>0.0141483527894996</v>
       </c>
       <c r="T9">
-        <v>0.02385654349389054</v>
+        <v>0.02061593643326943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.7489203333333333</v>
+        <v>0.223433</v>
       </c>
       <c r="H10">
-        <v>2.246761</v>
+        <v>0.670299</v>
       </c>
       <c r="I10">
-        <v>0.2367208348294586</v>
+        <v>0.1028448543242582</v>
       </c>
       <c r="J10">
-        <v>0.2684247109856285</v>
+        <v>0.116514083919468</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N10">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O10">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P10">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q10">
-        <v>5.00457025706</v>
+        <v>0.8673548406179999</v>
       </c>
       <c r="R10">
-        <v>30.02742154236</v>
+        <v>5.204129043708</v>
       </c>
       <c r="S10">
-        <v>0.1945107294695073</v>
+        <v>0.0686498937159777</v>
       </c>
       <c r="T10">
-        <v>0.2025067647233281</v>
+        <v>0.06668770874159856</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.223433</v>
+      </c>
+      <c r="H11">
+        <v>0.670299</v>
+      </c>
+      <c r="I11">
+        <v>0.1028448543242582</v>
+      </c>
+      <c r="J11">
+        <v>0.116514083919468</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.7489203333333333</v>
-      </c>
-      <c r="H11">
-        <v>2.246761</v>
-      </c>
-      <c r="I11">
-        <v>0.2367208348294586</v>
-      </c>
-      <c r="J11">
-        <v>0.2684247109856285</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N11">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O11">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P11">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q11">
-        <v>0.4568468954157778</v>
+        <v>0.2027536800286666</v>
       </c>
       <c r="R11">
-        <v>4.111622058741999</v>
+        <v>1.824783120258</v>
       </c>
       <c r="S11">
-        <v>0.01775609459330591</v>
+        <v>0.0160476634621349</v>
       </c>
       <c r="T11">
-        <v>0.02772903027009196</v>
+        <v>0.02338347189670089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H12">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I12">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J12">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N12">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O12">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P12">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q12">
-        <v>0.1838900611386667</v>
+        <v>0.06215875715333334</v>
       </c>
       <c r="R12">
-        <v>1.103340366832</v>
+        <v>0.55942881438</v>
       </c>
       <c r="S12">
-        <v>0.007147185092229491</v>
+        <v>0.004919776626891459</v>
       </c>
       <c r="T12">
-        <v>0.007440994817373773</v>
+        <v>0.007168735733049688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H13">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I13">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J13">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.45377</v>
       </c>
       <c r="O13">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P13">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q13">
-        <v>0.1695605384133333</v>
+        <v>0.1255738896933334</v>
       </c>
       <c r="R13">
-        <v>1.01736323048</v>
+        <v>1.13016500724</v>
       </c>
       <c r="S13">
-        <v>0.006590244980474146</v>
+        <v>0.009938993566700964</v>
       </c>
       <c r="T13">
-        <v>0.006861159759000273</v>
+        <v>0.01448236855769186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H14">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I14">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J14">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N14">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O14">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P14">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q14">
-        <v>0.5883261548040001</v>
+        <v>0.6642022195880001</v>
       </c>
       <c r="R14">
-        <v>3.529956928824001</v>
+        <v>5.977819976292</v>
       </c>
       <c r="S14">
-        <v>0.02286624898021575</v>
+        <v>0.05257065464480953</v>
       </c>
       <c r="T14">
-        <v>0.02380624511033726</v>
+        <v>0.07660208156649204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H15">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I15">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J15">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N15">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O15">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P15">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q15">
-        <v>7.491028168560001</v>
+        <v>3.222807096984</v>
       </c>
       <c r="R15">
-        <v>29.96411267424</v>
+        <v>19.336842581904</v>
       </c>
       <c r="S15">
-        <v>0.2911509437773817</v>
+        <v>0.255080567161429</v>
       </c>
       <c r="T15">
-        <v>0.2020798058503129</v>
+        <v>0.247789729127345</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.121012</v>
+        <v>0.8302040000000001</v>
       </c>
       <c r="H16">
-        <v>2.242024</v>
+        <v>2.490612</v>
       </c>
       <c r="I16">
-        <v>0.3543326101358903</v>
+        <v>0.382137864323607</v>
       </c>
       <c r="J16">
-        <v>0.2678587727946332</v>
+        <v>0.4329282537775441</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N16">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O16">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P16">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q16">
-        <v>0.6838255407546667</v>
+        <v>0.7533664059226667</v>
       </c>
       <c r="R16">
-        <v>4.102953244528001</v>
+        <v>6.780297653303999</v>
       </c>
       <c r="S16">
-        <v>0.0265779873055893</v>
+        <v>0.059627872323776</v>
       </c>
       <c r="T16">
-        <v>0.02767056725760892</v>
+        <v>0.08688533879296552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H17">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I17">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J17">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N17">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O17">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P17">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q17">
-        <v>0.1755815782648889</v>
+        <v>0.05724915991916667</v>
       </c>
       <c r="R17">
-        <v>1.580234204384</v>
+        <v>0.343494959515</v>
       </c>
       <c r="S17">
-        <v>0.006824262447216448</v>
+        <v>0.004531189035596467</v>
       </c>
       <c r="T17">
-        <v>0.01065719598279551</v>
+        <v>0.004401676365431186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H18">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I18">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J18">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.45377</v>
       </c>
       <c r="O18">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P18">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q18">
-        <v>0.1618994890844445</v>
+        <v>0.1156554606616667</v>
       </c>
       <c r="R18">
-        <v>1.45709540176</v>
+        <v>0.69393276397</v>
       </c>
       <c r="S18">
-        <v>0.006292485888899424</v>
+        <v>0.009153964110511803</v>
       </c>
       <c r="T18">
-        <v>0.009826740377537738</v>
+        <v>0.008892321013029895</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H19">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I19">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J19">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N19">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O19">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P19">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q19">
-        <v>0.561744523632</v>
+        <v>0.6117403376335</v>
       </c>
       <c r="R19">
-        <v>5.055700712688</v>
+        <v>3.670442025801</v>
       </c>
       <c r="S19">
-        <v>0.02183311082765187</v>
+        <v>0.04841837180546953</v>
       </c>
       <c r="T19">
-        <v>0.03409595436929429</v>
+        <v>0.04703445412551421</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.070362666666667</v>
+        <v>0.7646305</v>
       </c>
       <c r="H20">
-        <v>3.211088</v>
+        <v>1.529261</v>
       </c>
       <c r="I20">
-        <v>0.3383232271126553</v>
+        <v>0.3519547801103003</v>
       </c>
       <c r="J20">
-        <v>0.3836346493238132</v>
+        <v>0.2658223337477298</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N20">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O20">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P20">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q20">
-        <v>7.152570076480001</v>
+        <v>2.968254310953</v>
       </c>
       <c r="R20">
-        <v>42.91542045888001</v>
+        <v>11.873017243812</v>
       </c>
       <c r="S20">
-        <v>0.2779962217925188</v>
+        <v>0.2349330786275747</v>
       </c>
       <c r="T20">
-        <v>0.2894242165151977</v>
+        <v>0.1521454040031176</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7646305</v>
+      </c>
+      <c r="H21">
+        <v>1.529261</v>
+      </c>
+      <c r="I21">
+        <v>0.3519547801103003</v>
+      </c>
+      <c r="J21">
+        <v>0.2658223337477298</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9074473333333333</v>
+      </c>
+      <c r="N21">
+        <v>2.722342</v>
+      </c>
+      <c r="O21">
+        <v>0.1560375924257564</v>
+      </c>
+      <c r="P21">
+        <v>0.2006922348792017</v>
+      </c>
+      <c r="Q21">
+        <v>0.6938619082103333</v>
+      </c>
+      <c r="R21">
+        <v>4.163171449261999</v>
+      </c>
+      <c r="S21">
+        <v>0.05491817653114776</v>
+      </c>
+      <c r="T21">
+        <v>0.05334847824063694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.293908</v>
+      </c>
+      <c r="H22">
+        <v>0.881724</v>
+      </c>
+      <c r="I22">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J22">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07487166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.224615</v>
+      </c>
+      <c r="O22">
+        <v>0.01287435003490057</v>
+      </c>
+      <c r="P22">
+        <v>0.01655871537719798</v>
+      </c>
+      <c r="Q22">
+        <v>0.02200538180666667</v>
+      </c>
+      <c r="R22">
+        <v>0.19804843626</v>
+      </c>
+      <c r="S22">
+        <v>0.001741694461670162</v>
+      </c>
+      <c r="T22">
+        <v>0.002537868742898333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.293908</v>
+      </c>
+      <c r="H23">
+        <v>0.881724</v>
+      </c>
+      <c r="I23">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J23">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.45377</v>
+      </c>
+      <c r="O23">
+        <v>0.02600892111095355</v>
+      </c>
+      <c r="P23">
+        <v>0.03345212152666174</v>
+      </c>
+      <c r="Q23">
+        <v>0.04445554438666667</v>
+      </c>
+      <c r="R23">
+        <v>0.40009989948</v>
+      </c>
+      <c r="S23">
+        <v>0.003518592684691891</v>
+      </c>
+      <c r="T23">
+        <v>0.005127033811032107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.293908</v>
+      </c>
+      <c r="H24">
+        <v>0.881724</v>
+      </c>
+      <c r="I24">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J24">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8000470000000001</v>
+      </c>
+      <c r="N24">
+        <v>2.400141</v>
+      </c>
+      <c r="O24">
+        <v>0.1375698656239178</v>
+      </c>
+      <c r="P24">
+        <v>0.1769394371887155</v>
+      </c>
+      <c r="Q24">
+        <v>0.235140213676</v>
+      </c>
+      <c r="R24">
+        <v>2.116261923084</v>
+      </c>
+      <c r="S24">
+        <v>0.01861101122777857</v>
+      </c>
+      <c r="T24">
+        <v>0.02711859324821916</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.293908</v>
+      </c>
+      <c r="H25">
+        <v>0.881724</v>
+      </c>
+      <c r="I25">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J25">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.881946</v>
+      </c>
+      <c r="N25">
+        <v>7.763892</v>
+      </c>
+      <c r="O25">
+        <v>0.6675092708044715</v>
+      </c>
+      <c r="P25">
+        <v>0.5723574910282232</v>
+      </c>
+      <c r="Q25">
+        <v>1.140934984968</v>
+      </c>
+      <c r="R25">
+        <v>6.845609909808</v>
+      </c>
+      <c r="S25">
+        <v>0.09030337041652564</v>
+      </c>
+      <c r="T25">
+        <v>0.08772227513762851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.293908</v>
+      </c>
+      <c r="H26">
+        <v>0.881724</v>
+      </c>
+      <c r="I26">
+        <v>0.1352840692499948</v>
+      </c>
+      <c r="J26">
+        <v>0.1532648327534563</v>
+      </c>
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.070362666666667</v>
-      </c>
-      <c r="H21">
-        <v>3.211088</v>
-      </c>
-      <c r="I21">
-        <v>0.3383232271126553</v>
-      </c>
-      <c r="J21">
-        <v>0.3836346493238132</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.6100073333333333</v>
-      </c>
-      <c r="N21">
-        <v>1.830022</v>
-      </c>
-      <c r="O21">
-        <v>0.07500858387094646</v>
-      </c>
-      <c r="P21">
-        <v>0.1033028224870719</v>
-      </c>
-      <c r="Q21">
-        <v>0.652929075992889</v>
-      </c>
-      <c r="R21">
-        <v>5.876361683936</v>
-      </c>
-      <c r="S21">
-        <v>0.02537714615636887</v>
-      </c>
-      <c r="T21">
-        <v>0.03963054207898796</v>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9074473333333333</v>
+      </c>
+      <c r="N26">
+        <v>2.722342</v>
+      </c>
+      <c r="O26">
+        <v>0.1560375924257564</v>
+      </c>
+      <c r="P26">
+        <v>0.2006922348792017</v>
+      </c>
+      <c r="Q26">
+        <v>0.2667060308453333</v>
+      </c>
+      <c r="R26">
+        <v>2.400354277608</v>
+      </c>
+      <c r="S26">
+        <v>0.0211094004593285</v>
+      </c>
+      <c r="T26">
+        <v>0.03075906181367822</v>
       </c>
     </row>
   </sheetData>
